--- a/eform/public/files/template/anggotakeluarga.xlsx
+++ b/eform/public/files/template/anggotakeluarga.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">REKAPITULASI PENDATAAN KETUK PINTU </t>
   </si>
@@ -150,6 +150,69 @@
   </si>
   <si>
     <t>[a.kawin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keterangan Detail : </t>
+  </si>
+  <si>
+    <t>Kecamatan</t>
+  </si>
+  <si>
+    <t>Desa / Kelurahan</t>
+  </si>
+  <si>
+    <t>Dusun/RW</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>No. Rumah</t>
+  </si>
+  <si>
+    <t>Kode Pos</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Nama Kepala Rumah Tangga</t>
+  </si>
+  <si>
+    <t>Nama Koordinator</t>
+  </si>
+  <si>
+    <t>Nama Pendata</t>
+  </si>
+  <si>
+    <t>: [b.kepala_keluarga]</t>
+  </si>
+  <si>
+    <t>: [b.kecamatan]</t>
+  </si>
+  <si>
+    <t>: [b.desa]</t>
+  </si>
+  <si>
+    <t>: [b.rw]</t>
+  </si>
+  <si>
+    <t>: [b.rt]</t>
+  </si>
+  <si>
+    <t>: [b.norumah]</t>
+  </si>
+  <si>
+    <t>: [b.kodepos]</t>
+  </si>
+  <si>
+    <t>: [b.alamat]</t>
+  </si>
+  <si>
+    <t>: [b.koordinator]</t>
+  </si>
+  <si>
+    <t>: [b.pendata]</t>
   </si>
 </sst>
 </file>
@@ -216,12 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -243,6 +303,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,9 +654,9 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
@@ -587,10 +668,10 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -599,10 +680,10 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -611,8 +692,8 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -620,10 +701,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1"/>
@@ -632,10 +713,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1"/>
@@ -644,10 +725,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1"/>
@@ -655,171 +736,268 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C16" s="11">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D16" s="11">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E16" s="11">
         <v>5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F16" s="11">
         <v>6</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G16" s="11">
         <v>7</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H16" s="11">
         <v>8</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I16" s="11">
         <v>9</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J16" s="11">
         <v>10</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K16" s="11">
         <v>11</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L16" s="11">
         <v>12</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M16" s="11">
         <v>13</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N16" s="11">
         <v>14</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O16" s="11">
         <v>15</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P16" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P17" s="10" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/eform/public/files/template/anggotakeluarga.xlsx
+++ b/eform/public/files/template/anggotakeluarga.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">REKAPITULASI PENDATAAN KETUK PINTU </t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>[a.kawin]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keterangan Detail : </t>
   </si>
   <si>
     <t>Kecamatan</t>
@@ -219,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +234,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -279,10 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -304,26 +308,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -640,364 +657,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="12" t="s">
+      <c r="J10" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="12" t="s">
+      <c r="G11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="Q14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="B16" s="11">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H15" s="10">
         <v>7</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I15" s="10">
         <v>8</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J15" s="10">
         <v>9</v>
       </c>
-      <c r="J16" s="11">
+      <c r="K15" s="10">
         <v>10</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L15" s="10">
         <v>11</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M15" s="10">
         <v>12</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N15" s="10">
         <v>13</v>
       </c>
-      <c r="N16" s="11">
+      <c r="O15" s="10">
         <v>14</v>
       </c>
-      <c r="O16" s="11">
+      <c r="P15" s="10">
         <v>15</v>
       </c>
-      <c r="P16" s="11">
+      <c r="Q15" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q16" s="9" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
